--- a/files/state_data/farm.xlsx
+++ b/files/state_data/farm.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="OES Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,39 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
-  <si>
-    <t xml:space="preserve">One occupation for multiple geographical areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupation:Farmworkers, Farm, Ranch, and Aquacultural Animals(SOC Code452093)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period:May 2017</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t xml:space="preserve">Area Name</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Employment</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(1)</t>
-    </r>
+    <t xml:space="preserve">Employment</t>
   </si>
   <si>
     <t xml:space="preserve">Alabama(0100000)</t>
@@ -335,18 +308,6 @@
   </si>
   <si>
     <t xml:space="preserve">         310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1)Estimates for detailed occupations do not sum to the totals because the totals include occupations not shown separately. Estimates do not include self-employed workers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8)Estimate not released.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOC code: Standard Occupational Classification code -- see http://www.bls.gov/soc/home.htm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date extracted on :Apr 10, 2018</t>
   </si>
 </sst>
 </file>
@@ -357,11 +318,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -384,13 +346,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -406,19 +361,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -454,7 +402,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -463,11 +411,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -488,471 +432,427 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>76</v>
+      <c r="A44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>78</v>
+      <c r="A45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>82</v>
+      <c r="A46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>48</v>
+      <c r="A48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>85</v>
+      <c r="A49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>87</v>
+      <c r="A50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>102</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
